--- a/WoniuBoss_project/python/WoniuBoss/testdata/woniuboss_test.xlsx
+++ b/WoniuBoss_project/python/WoniuBoss/testdata/woniuboss_test.xlsx
@@ -5,22 +5,21 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\work\untitled1\WoniuBoss\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\localstorage\WoniuBoss_project\python\WoniuBoss\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="training" sheetId="1" r:id="rId1"/>
-    <sheet name="sales" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>用例编号</t>
   </si>
@@ -69,26 +68,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>接口地址</t>
-  </si>
-  <si>
-    <t>响应正文</t>
-  </si>
-  <si>
-    <t>S_QUERY_BARCODE_001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入正确的条码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.0.106:8080/WoniuBoss2.5/log/userLogin</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
     <t>userName=WNCD000
 userPass=woniu123
 checkcode=0000</t>
@@ -106,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,13 +141,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -224,7 +196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -247,29 +219,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -291,7 +242,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -580,8 +531,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>3</v>
@@ -618,70 +569,11 @@
         <v>5</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="66.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="59.875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="44.25" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
